--- a/data/lit_review/round2/raw/database_example_for_yutian.xlsx
+++ b/data/lit_review/round2/raw/database_example_for_yutian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round2/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C92CCB-4C58-224A-8AB0-726FF7C7CA78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76F9968-94A8-784E-896A-6A5A4FDBFBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="620" windowWidth="37820" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39940" yWindow="1400" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="5" r:id="rId1"/>
@@ -3311,9 +3311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3351,7 +3351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3457,7 +3457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3599,7 +3599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3610,8 +3610,8 @@
   <dimension ref="A1:W462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H279" sqref="A1:W462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -30639,11 +30639,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}">
-    <sortState ref="A76:W462">
-      <sortCondition ref="A1:A462"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:W462" xr:uid="{1FB3BB67-076C-D842-8E0A-96A64266092F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -30673,9 +30669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A59317-DFCB-D444-85E0-2BD7B6E5BEF1}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="F51:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -32975,6 +32971,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
